--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1112">
   <si>
     <t>anchor score</t>
   </si>
@@ -514,469 +514,469 @@
     <t>cut</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>consumers</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>due</t>
   </si>
   <si>
     <t>best</t>
@@ -3718,7 +3718,7 @@
         <v>150</v>
       </c>
       <c r="J1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3776,7 +3776,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02659656280424213</v>
+        <v>0.02691631325918972</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -3797,28 +3797,28 @@
         <v>92</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="K3">
-        <v>0.004131193363237227</v>
+        <v>0.006961302622476882</v>
       </c>
       <c r="L3">
-        <v>648</v>
+        <v>196</v>
       </c>
       <c r="M3">
-        <v>678</v>
+        <v>196</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2429</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3826,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02378868895925114</v>
+        <v>0.02407468246049085</v>
       </c>
       <c r="C4">
         <v>160</v>
@@ -3847,28 +3847,28 @@
         <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>320</v>
       </c>
       <c r="K4">
-        <v>0.003915779536725335</v>
+        <v>0.006387110802584789</v>
       </c>
       <c r="L4">
-        <v>453</v>
+        <v>165</v>
       </c>
       <c r="M4">
-        <v>469</v>
+        <v>165</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2732</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3876,7 +3876,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01012766938564838</v>
+        <v>0.01024942673141726</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -3897,28 +3897,28 @@
         <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>0.003701828200810769</v>
+        <v>0.004131193363237227</v>
       </c>
       <c r="L5">
-        <v>212</v>
+        <v>648</v>
       </c>
       <c r="M5">
-        <v>215</v>
+        <v>678</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>168</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3926,7 +3926,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.00958952709417933</v>
+        <v>0.009704814760245976</v>
       </c>
       <c r="C6">
         <v>26</v>
@@ -3947,28 +3947,28 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="K6">
-        <v>0.003550974603417593</v>
+        <v>0.003915779536725335</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>453</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3976,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008821081953479378</v>
+        <v>0.008927131182040035</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3997,28 +3997,28 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="K7">
-        <v>0.003450554966456912</v>
+        <v>0.003701828200810769</v>
       </c>
       <c r="L7">
-        <v>442</v>
+        <v>212</v>
       </c>
       <c r="M7">
-        <v>462</v>
+        <v>215</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1681</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4026,7 +4026,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008410571639312015</v>
+        <v>0.008511685611362958</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -4047,16 +4047,16 @@
         <v>129</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K8">
-        <v>0.003444951379712121</v>
+        <v>0.003550974603417593</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>115</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4076,7 +4076,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007522643966053403</v>
+        <v>0.007613083052045772</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="K9">
-        <v>0.003444951379712121</v>
+        <v>0.003450554966456912</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>442</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>462</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>182</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4126,7 +4126,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007036789090913534</v>
+        <v>0.007121387109452641</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -4147,28 +4147,28 @@
         <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>183</v>
+        <v>322</v>
       </c>
       <c r="K10">
-        <v>0.003357932026426874</v>
+        <v>0.003444951379712121</v>
       </c>
       <c r="L10">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>356</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4176,7 +4176,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006514800778227969</v>
+        <v>0.006593123324192406</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -4197,16 +4197,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K11">
-        <v>0.003144795966961457</v>
+        <v>0.003444951379712121</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>125</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4226,7 +4226,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006514800778227969</v>
+        <v>0.006593123324192406</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -4247,28 +4247,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>325</v>
+        <v>181</v>
       </c>
       <c r="K12">
-        <v>0.002983415409632949</v>
+        <v>0.003357932026426874</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4276,7 +4276,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006237446866707546</v>
+        <v>0.006312434995362388</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4297,16 +4297,16 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K13">
-        <v>0.002941687264919559</v>
+        <v>0.003144795966961457</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4326,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006237446866707546</v>
+        <v>0.006312434995362388</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -4347,28 +4347,28 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="K14">
-        <v>0.002889811805945627</v>
+        <v>0.002983415409632949</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4376,7 +4376,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006237446866707546</v>
+        <v>0.006312434995362388</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -4397,16 +4397,16 @@
         <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K15">
-        <v>0.002856402786880566</v>
+        <v>0.002941687264919559</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4426,7 +4426,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005947172239812784</v>
+        <v>0.006018670615122713</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -4447,28 +4447,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="K16">
-        <v>0.002768492332878711</v>
+        <v>0.002889811805945627</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4476,7 +4476,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005947172239812784</v>
+        <v>0.006018670615122713</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4497,16 +4497,16 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K17">
-        <v>0.00272347319710747</v>
+        <v>0.002856402786880566</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>276</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4526,7 +4526,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005947172239812784</v>
+        <v>0.006018670615122713</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -4547,28 +4547,28 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
       <c r="K18">
-        <v>0.002705854480552701</v>
+        <v>0.002768492332878711</v>
       </c>
       <c r="L18">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>665</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4576,7 +4576,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005947172239812784</v>
+        <v>0.006018670615122713</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -4597,16 +4597,16 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K19">
-        <v>0.002583713534784091</v>
+        <v>0.00272347319710747</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>104</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4626,7 +4626,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005641982974540052</v>
+        <v>0.005709812289034329</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4647,28 +4647,28 @@
         <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="K20">
-        <v>0.002535415565145303</v>
+        <v>0.002705854480552701</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>72</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4676,7 +4676,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005641982974540052</v>
+        <v>0.005709812289034329</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4697,16 +4697,16 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K21">
-        <v>0.002535415565145303</v>
+        <v>0.002583713534784091</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4726,7 +4726,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005641982974540052</v>
+        <v>0.005709812289034329</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4747,7 +4747,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K22">
         <v>0.002535415565145303</v>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4776,7 +4776,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005319312560848426</v>
+        <v>0.005383262651837944</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4797,16 +4797,16 @@
         <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K23">
-        <v>0.002486179508027458</v>
+        <v>0.002535415565145303</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>275</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4826,7 +4826,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005319312560848426</v>
+        <v>0.005383262651837944</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4847,28 +4847,28 @@
         <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="K24">
-        <v>0.002396073399913931</v>
+        <v>0.002535415565145303</v>
       </c>
       <c r="L24">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>686</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4876,7 +4876,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005319312560848426</v>
+        <v>0.005383262651837944</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4897,16 +4897,16 @@
         <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K25">
-        <v>0.00233224310924041</v>
+        <v>0.002486179508027458</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>102</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4926,7 +4926,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005319312560848426</v>
+        <v>0.005383262651837944</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4947,28 +4947,28 @@
         <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="K26">
-        <v>0.00233224310924041</v>
+        <v>0.002396073399913931</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>87</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4976,7 +4976,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005319312560848426</v>
+        <v>0.005383262651837944</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4997,28 +4997,28 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>179</v>
+        <v>335</v>
       </c>
       <c r="K27">
-        <v>0.00230397289925379</v>
+        <v>0.00233224310924041</v>
       </c>
       <c r="L27">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5026,7 +5026,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -5047,28 +5047,28 @@
         <v>73</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
       <c r="K28">
-        <v>0.002297780578557678</v>
+        <v>0.00233224310924041</v>
       </c>
       <c r="L28">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5076,7 +5076,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -5097,28 +5097,28 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>337</v>
+        <v>177</v>
       </c>
       <c r="K29">
-        <v>0.002278621157356779</v>
+        <v>0.00230397289925379</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5126,7 +5126,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -5147,28 +5147,28 @@
         <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="K30">
-        <v>0.002278621157356779</v>
+        <v>0.002297780578557678</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5176,7 +5176,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -5197,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K31">
         <v>0.002278621157356779</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5226,7 +5226,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -5247,16 +5247,16 @@
         <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K32">
-        <v>0.002223706553686552</v>
+        <v>0.002278621157356779</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>444</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5276,7 +5276,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5297,28 +5297,28 @@
         <v>31</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>190</v>
+        <v>339</v>
       </c>
       <c r="K33">
-        <v>0.002215737433643648</v>
+        <v>0.002278621157356779</v>
       </c>
       <c r="L33">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>233</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5326,7 +5326,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5347,28 +5347,28 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="K34">
-        <v>0.002188919470849608</v>
+        <v>0.002223706553686552</v>
       </c>
       <c r="L34">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5376,7 +5376,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5397,28 +5397,28 @@
         <v>13</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K35">
-        <v>0.002172160333090022</v>
+        <v>0.002215737433643648</v>
       </c>
       <c r="L35">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="M35">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>136</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5426,7 +5426,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5447,28 +5447,28 @@
         <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="K36">
-        <v>0.0021095932672479</v>
+        <v>0.002188919470849608</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5476,7 +5476,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5497,28 +5497,28 @@
         <v>3</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="K37">
-        <v>0.0021095932672479</v>
+        <v>0.002172160333090022</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>64</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5526,7 +5526,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004975761283964481</v>
+        <v>0.005035581116548429</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -5547,28 +5547,28 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>166</v>
+        <v>341</v>
       </c>
       <c r="K38">
-        <v>0.002055966782448443</v>
+        <v>0.0021095932672479</v>
       </c>
       <c r="L38">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5576,7 +5576,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004606659808364394</v>
+        <v>0.004662042211735642</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5597,16 +5597,16 @@
         <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K39">
-        <v>0.002050156143168672</v>
+        <v>0.0021095932672479</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5626,7 +5626,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004606659808364394</v>
+        <v>0.004662042211735642</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5647,7 +5647,7 @@
         <v>367</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K40">
         <v>0.002050156143168672</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5676,7 +5676,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004606659808364394</v>
+        <v>0.004662042211735642</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5697,7 +5697,7 @@
         <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K41">
         <v>0.002050156143168672</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5726,7 +5726,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004606659808364394</v>
+        <v>0.004662042211735642</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5747,28 +5747,28 @@
         <v>22</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>176</v>
+        <v>345</v>
       </c>
       <c r="K42">
-        <v>0.002022653420349269</v>
+        <v>0.002050156143168672</v>
       </c>
       <c r="L42">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5776,7 +5776,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004606659808364394</v>
+        <v>0.004662042211735642</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5800,13 +5800,13 @@
         <v>174</v>
       </c>
       <c r="K43">
-        <v>0.00200214146575417</v>
+        <v>0.002022653420349269</v>
       </c>
       <c r="L43">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M43">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="N43">
         <v>0.97</v>
@@ -5818,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>447</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5826,7 +5826,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004606659808364394</v>
+        <v>0.004662042211735642</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5847,28 +5847,28 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="K44">
-        <v>0.001988943606421966</v>
+        <v>0.00200214146575417</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>112</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5876,7 +5876,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004606659808364394</v>
+        <v>0.004662042211735642</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5897,7 +5897,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K45">
         <v>0.001988943606421966</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5926,7 +5926,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5947,28 +5947,28 @@
         <v>9</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="K46">
-        <v>0.001951265471158612</v>
+        <v>0.001988943606421966</v>
       </c>
       <c r="L46">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5976,7 +5976,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5997,28 +5997,28 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="K47">
-        <v>0.001915681707629148</v>
+        <v>0.001951265471158612</v>
       </c>
       <c r="L47">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="M47">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6026,7 +6026,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -6047,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K48">
         <v>0.001915646048756434</v>
@@ -6076,7 +6076,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6126,7 +6126,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6176,7 +6176,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6226,7 +6226,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -6276,7 +6276,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6326,7 +6326,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -6376,7 +6376,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6426,7 +6426,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6476,7 +6476,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6526,7 +6526,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004205285819656008</v>
+        <v>0.004255842805681479</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6576,7 +6576,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6626,7 +6626,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6676,7 +6676,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6726,7 +6726,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6747,7 +6747,7 @@
         <v>12</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K62">
         <v>0.001671590364701961</v>
@@ -6776,7 +6776,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6826,7 +6826,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6876,7 +6876,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6976,7 +6976,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -7026,7 +7026,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -7047,7 +7047,7 @@
         <v>27</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K68">
         <v>0.00162977352683193</v>
@@ -7076,7 +7076,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003761321983026701</v>
+        <v>0.003806541526022886</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -7097,7 +7097,7 @@
         <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K69">
         <v>0.001615426931616994</v>
@@ -7126,7 +7126,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003361992077447994</v>
+        <v>0.003402410777571256</v>
       </c>
       <c r="C70">
         <v>30</v>
@@ -7176,7 +7176,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7226,7 +7226,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7276,7 +7276,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7326,7 +7326,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7376,7 +7376,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7426,7 +7426,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7447,7 +7447,7 @@
         <v>3</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K76">
         <v>0.001533221748429939</v>
@@ -7476,7 +7476,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7497,7 +7497,7 @@
         <v>3</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K77">
         <v>0.001526340057001985</v>
@@ -7526,7 +7526,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7547,7 +7547,7 @@
         <v>16</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K78">
         <v>0.001506460462381109</v>
@@ -7576,7 +7576,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7626,7 +7626,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7676,7 +7676,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -7726,7 +7726,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -7776,7 +7776,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003257400389113985</v>
+        <v>0.003296561662096203</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -7826,7 +7826,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002783409858924898</v>
+        <v>0.002816872700542721</v>
       </c>
       <c r="C84">
         <v>16</v>
@@ -7876,7 +7876,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002776136726087727</v>
+        <v>0.00280951212830405</v>
       </c>
       <c r="C85">
         <v>20</v>
@@ -7926,7 +7926,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7976,7 +7976,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -8026,7 +8026,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -8076,7 +8076,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8126,7 +8126,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8176,7 +8176,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8226,7 +8226,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8326,7 +8326,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8376,7 +8376,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8426,7 +8426,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8476,7 +8476,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8526,7 +8526,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8626,7 +8626,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8676,7 +8676,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8726,7 +8726,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8776,7 +8776,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8797,7 +8797,7 @@
         <v>24</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K103">
         <v>0.001385026067241817</v>
@@ -8826,7 +8826,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002659656280424213</v>
+        <v>0.002691631325918972</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8876,7 +8876,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00194715862088603</v>
+        <v>0.001970567843328266</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -8926,7 +8926,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001894243478563783</v>
+        <v>0.001917016542079933</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -8976,7 +8976,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9026,7 +9026,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9076,7 +9076,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9126,7 +9126,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9176,7 +9176,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9276,7 +9276,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9376,7 +9376,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9426,7 +9426,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9447,7 +9447,7 @@
         <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K116">
         <v>0.001300880745701946</v>
@@ -9476,7 +9476,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9497,7 +9497,7 @@
         <v>9</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K117">
         <v>0.00123051723829726</v>
@@ -9526,7 +9526,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9576,7 +9576,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9626,7 +9626,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9676,7 +9676,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9726,7 +9726,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9776,7 +9776,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9826,7 +9826,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9876,7 +9876,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9926,7 +9926,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10026,7 +10026,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -10076,7 +10076,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10126,7 +10126,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10176,7 +10176,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10226,7 +10226,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10276,7 +10276,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10326,7 +10326,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10376,7 +10376,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10426,7 +10426,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10476,7 +10476,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10526,7 +10526,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10576,7 +10576,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10626,7 +10626,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>55</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K140">
         <v>0.001170330366483164</v>
@@ -10676,7 +10676,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>6</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K141">
         <v>0.001124696102260017</v>
@@ -10726,7 +10726,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10776,7 +10776,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10826,7 +10826,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10876,7 +10876,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10926,7 +10926,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10976,7 +10976,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -11026,7 +11026,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -11076,7 +11076,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11126,7 +11126,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11176,7 +11176,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11226,7 +11226,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11276,7 +11276,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11326,7 +11326,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11376,7 +11376,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11426,7 +11426,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11476,7 +11476,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11526,7 +11526,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11576,7 +11576,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11626,7 +11626,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001880660991513351</v>
+        <v>0.001903270763011443</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11676,25 +11676,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001842181594552625</v>
+        <v>0.001685571015009104</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>449</v>
@@ -11726,25 +11726,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001692196035601495</v>
+        <v>0.001646492991483705</v>
       </c>
       <c r="C162">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D162">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E162">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F162">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>450</v>
@@ -11776,25 +11776,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001665547392393863</v>
+        <v>0.001594062006708848</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D163">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>451</v>
@@ -11826,25 +11826,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001626933593507268</v>
+        <v>0.001529975689503316</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D164">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E164">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F164">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>136</v>
+        <v>726</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>452</v>
@@ -11876,25 +11876,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001575125458937552</v>
+        <v>0.001478379094689404</v>
       </c>
       <c r="C165">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E165">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>264</v>
+        <v>1033</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>453</v>
@@ -11926,13 +11926,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001511800450641047</v>
+        <v>0.001435486650959283</v>
       </c>
       <c r="C166">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E166">
         <v>0.9399999999999999</v>
@@ -11944,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>726</v>
+        <v>526</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>454</v>
@@ -11976,25 +11976,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001460816793955274</v>
+        <v>0.001423094890617171</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E167">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F167">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>1033</v>
+        <v>447</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>455</v>
@@ -12026,25 +12026,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001418433888001165</v>
+        <v>0.001396477038028706</v>
       </c>
       <c r="C168">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>526</v>
+        <v>38</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>456</v>
@@ -12076,13 +12076,13 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001406189334706646</v>
+        <v>0.00132130046034688</v>
       </c>
       <c r="C169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D169">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E169">
         <v>0.97</v>
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>447</v>
+        <v>14</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>457</v>
@@ -12126,25 +12126,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.00137988768703053</v>
+        <v>0.001311772833874789</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D170">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E170">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F170">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>458</v>
@@ -12176,25 +12176,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001305604164228981</v>
+        <v>0.001305205169809572</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D171">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="E171">
-        <v>0.97</v>
+        <v>0.11</v>
       </c>
       <c r="F171">
-        <v>0.03000000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>459</v>
@@ -12226,28 +12226,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001296189720527119</v>
+        <v>0.001240994267447806</v>
       </c>
       <c r="C172">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E172">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F172">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K172">
         <v>0.001095882106929713</v>
@@ -12276,28 +12276,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001289700076566386</v>
+        <v>0.00121568505479672</v>
       </c>
       <c r="C173">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E173">
-        <v>0.11</v>
+        <v>0.98</v>
       </c>
       <c r="F173">
-        <v>0.89</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K173">
         <v>0.00105011693896404</v>
@@ -12326,28 +12326,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001226251963114269</v>
+        <v>0.001197243682348169</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D174">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E174">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F174">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K174">
         <v>0.001021929531087821</v>
@@ -12376,28 +12376,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001201243409479209</v>
+        <v>0.001160762131230709</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E175">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F175">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K175">
         <v>0.001001070732877085</v>
@@ -12426,25 +12426,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001183021110020838</v>
+        <v>0.00113165785827379</v>
       </c>
       <c r="C176">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E176">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F176">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>460</v>
@@ -12476,25 +12476,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001146972938930377</v>
+        <v>0.001079476045800748</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E177">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F177">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>461</v>
@@ -12526,25 +12526,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.00111821440814213</v>
+        <v>0.001077566484172851</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D178">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E178">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="F178">
-        <v>0.01000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>462</v>
@@ -12576,25 +12576,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.00106665248584935</v>
+        <v>0.001068324070202982</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E179">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F179">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>463</v>
@@ -12626,25 +12626,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.001064765608724839</v>
+        <v>0.001067939390239955</v>
       </c>
       <c r="C180">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E180">
-        <v>0.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F180">
-        <v>0.9</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>464</v>
@@ -12676,25 +12676,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.001055632989363289</v>
+        <v>0.001029973338884795</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D181">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E181">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F181">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>465</v>
@@ -12726,13 +12726,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.001055252879178895</v>
+        <v>0.001029297315688927</v>
       </c>
       <c r="C182">
         <v>4</v>
       </c>
       <c r="D182">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E182">
         <v>0.9399999999999999</v>
@@ -12744,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>466</v>
@@ -12776,25 +12776,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.001017737842867158</v>
+        <v>0.0009859174040540855</v>
       </c>
       <c r="C183">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E183">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F183">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>467</v>
@@ -12826,25 +12826,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.001017069850441415</v>
+        <v>0.0009672809770964489</v>
       </c>
       <c r="C184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E184">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F184">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>468</v>
@@ -12876,25 +12876,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0009742052674233601</v>
+        <v>0.000948712421177483</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D185">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E185">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>469</v>
@@ -12926,13 +12926,13 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0009557902305922583</v>
+        <v>0.0009420106132605515</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
       <c r="D186">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E186">
         <v>0.96</v>
@@ -12944,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>470</v>
@@ -12976,25 +12976,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.000937442258530585</v>
+        <v>0.0009409882118147985</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>471</v>
@@ -13026,25 +13026,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0009308200642706121</v>
+        <v>0.0008709202395377484</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E188">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F188">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>472</v>
@@ -13076,13 +13076,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0009298098083711035</v>
+        <v>0.0008501918161289846</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E189">
         <v>0.98</v>
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>473</v>
@@ -13126,25 +13126,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0008605742036548373</v>
+        <v>0.0007889923905300607</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D190">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E190">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F190">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>190</v>
+        <v>496</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>474</v>
@@ -13176,25 +13176,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0008400920220976775</v>
+        <v>0.0007522693032170955</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E191">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F191">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>475</v>
@@ -13226,25 +13226,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007796196107814806</v>
+        <v>0.0007484670506591435</v>
       </c>
       <c r="C192">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E192">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>496</v>
+        <v>151</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>476</v>
@@ -13276,25 +13276,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007433327728078038</v>
+        <v>0.0007415269590857119</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E193">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F193">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>477</v>
@@ -13326,13 +13326,13 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0007395756888423526</v>
+        <v>0.0007348077688367992</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="D194">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E194">
         <v>0.9399999999999999</v>
@@ -13344,7 +13344,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>478</v>
@@ -13376,25 +13376,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0007327180415998596</v>
+        <v>0.0007348077688367992</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>33</v>
       </c>
       <c r="E195">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F195">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>479</v>
@@ -13426,25 +13426,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0007260786715000988</v>
+        <v>0.0007115474453085855</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E196">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F196">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>480</v>
@@ -13476,25 +13476,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0007260786715000988</v>
+        <v>0.000706703300551023</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E197">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F197">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>481</v>
@@ -13526,13 +13526,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0007030946673533231</v>
+        <v>0.0007008250756372584</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E198">
         <v>0.97</v>
@@ -13544,7 +13544,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>482</v>
@@ -13576,25 +13576,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006983080682735491</v>
+        <v>0.000678132793483945</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E199">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F199">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>483</v>
@@ -13626,25 +13626,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006924996733202385</v>
+        <v>0.0006661020925862342</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F200">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>484</v>
@@ -13676,25 +13676,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006700769625407032</v>
+        <v>0.0006597433636985988</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E201">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F201">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>485</v>
@@ -13726,13 +13726,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006581891795102477</v>
+        <v>0.0006535688951880466</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E202">
         <v>0.96</v>
@@ -13744,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>486</v>
@@ -13776,25 +13776,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0006519059886963126</v>
+        <v>0.0006400129421853072</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E203">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F203">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>487</v>
@@ -13826,13 +13826,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006458048693512386</v>
+        <v>0.0006268321007266207</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E204">
         <v>0.96</v>
@@ -13844,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>488</v>
@@ -13876,25 +13876,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0006324099533411264</v>
+        <v>0.0006260169883287596</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F205">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>489</v>
@@ -13926,25 +13926,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.000619385692763797</v>
+        <v>0.0006125345066250569</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E206">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F206">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>490</v>
@@ -13976,25 +13976,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.000618580263436479</v>
+        <v>0.0006125345066250569</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>491</v>
@@ -14026,13 +14026,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0006052579459282613</v>
+        <v>0.0005975447303531129</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E208">
         <v>0.95</v>
@@ -14044,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>492</v>
@@ -14076,13 +14076,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0006052579459282613</v>
+        <v>0.0005975447303531129</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E209">
         <v>0.95</v>
@@ -14094,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>493</v>
@@ -14126,25 +14126,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005904462396518759</v>
+        <v>0.0005934482097054059</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D210">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="F210">
-        <v>0.05000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>91</v>
+        <v>908</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>494</v>
@@ -14176,13 +14176,13 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005904462396518759</v>
+        <v>0.0005817991043014054</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E211">
         <v>0.95</v>
@@ -14194,7 +14194,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>495</v>
@@ -14226,25 +14226,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005863983833337967</v>
+        <v>0.0005652250502213854</v>
       </c>
       <c r="C212">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E212">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="F212">
-        <v>0.18</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>908</v>
+        <v>38</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>496</v>
@@ -14276,25 +14276,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005748876626601562</v>
+        <v>0.0005505439073740742</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E213">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F213">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>497</v>
@@ -14326,25 +14326,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005585104988927647</v>
+        <v>0.0005505439073740742</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E214">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F214">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>498</v>
@@ -14376,7 +14376,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005440037596518976</v>
+        <v>0.0005505439073740742</v>
       </c>
       <c r="C215">
         <v>2</v>
@@ -14394,7 +14394,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>205</v>
+        <v>338</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>499</v>
@@ -14426,25 +14426,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005440037596518976</v>
+        <v>0.0005477393717503614</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E216">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F216">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>500</v>
@@ -14476,25 +14476,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0005440037596518976</v>
+        <v>0.0005477393717503614</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E217">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F217">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>338</v>
+        <v>60</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>501</v>
@@ -14526,7 +14526,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000541232540312364</v>
+        <v>0.0005477393717503614</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>502</v>
@@ -14576,25 +14576,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.000541232540312364</v>
+        <v>0.0005297110916033488</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E219">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F219">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>503</v>
@@ -14626,13 +14626,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.000541232540312364</v>
+        <v>0.0005292461270157755</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E220">
         <v>0.9399999999999999</v>
@@ -14644,7 +14644,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>504</v>
@@ -14676,28 +14676,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0005234184258545161</v>
+        <v>0.0005292461270157755</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E221">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F221">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K221">
         <v>0.0009688366295795505</v>
@@ -14726,13 +14726,13 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0005229589847811396</v>
+        <v>0.0005096339551578137</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E222">
         <v>0.9399999999999999</v>
@@ -14744,10 +14744,10 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K222">
         <v>0.0009033651297801823</v>
@@ -14776,13 +14776,13 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0005229589847811396</v>
+        <v>0.0005096339551578137</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E223">
         <v>0.9399999999999999</v>
@@ -14794,10 +14794,10 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K223">
         <v>0.0008713768066049843</v>
@@ -14826,28 +14826,28 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.000503579794342799</v>
+        <v>0.0005079697120919795</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E224">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K224">
         <v>0.000870107083566936</v>
@@ -14876,25 +14876,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.000503579794342799</v>
+        <v>0.0005025409484400728</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E225">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>505</v>
@@ -14926,25 +14926,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0005019353215357041</v>
+        <v>0.0004887726865873005</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E226">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>506</v>
@@ -14976,25 +14976,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.000496571048500725</v>
+        <v>0.0004887726865873005</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E227">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F227">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>507</v>
@@ -15026,7 +15026,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0004829663457486686</v>
+        <v>0.0004887726865873005</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -15044,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>508</v>
@@ -15076,7 +15076,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0004829663457486686</v>
+        <v>0.0004887726865873005</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>509</v>
@@ -15126,7 +15126,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0004829663457486686</v>
+        <v>0.0004887726865873005</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -15144,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>510</v>
@@ -15176,13 +15176,13 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0004829663457486686</v>
+        <v>0.0004665090063141018</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E231">
         <v>0.93</v>
@@ -15194,7 +15194,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>511</v>
@@ -15226,25 +15226,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0004829663457486686</v>
+        <v>0.0004614597132060433</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E232">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F232">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>512</v>
@@ -15276,25 +15276,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0004609671453032834</v>
+        <v>0.0004568411051327037</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D233">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E233">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F233">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>513</v>
@@ -15326,25 +15326,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0004559778349184499</v>
+        <v>0.0004170101653803936</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F234">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>514</v>
@@ -15376,25 +15376,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0004514140932756817</v>
+        <v>0.0004170101653803936</v>
       </c>
       <c r="C235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E235">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="F235">
-        <v>0.15</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>515</v>
@@ -15426,7 +15426,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0004120563223776701</v>
+        <v>0.0004170101653803936</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15444,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>516</v>
@@ -15476,25 +15476,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0004120563223776701</v>
+        <v>0.0003892933302451463</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E237">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F237">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>517</v>
@@ -15526,25 +15526,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0004120563223776701</v>
+        <v>0.0003591888280576168</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F238">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>518</v>
@@ -15576,25 +15576,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0003846687474408335</v>
+        <v>0.0003591888280576168</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E239">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F239">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>519</v>
@@ -15626,7 +15626,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0003549218695749464</v>
+        <v>0.0003591888280576168</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15644,7 +15644,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>520</v>
@@ -15676,7 +15676,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0003549218695749464</v>
+        <v>0.0003591888280576168</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15726,7 +15726,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0003549218695749464</v>
+        <v>0.0003591888280576168</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15744,7 +15744,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>522</v>
@@ -15776,7 +15776,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0003549218695749464</v>
+        <v>0.0003591888280576168</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15794,7 +15794,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>523</v>
@@ -15826,25 +15826,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0003549218695749464</v>
+        <v>0.0003263012924523931</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F244">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>524</v>
@@ -15876,25 +15876,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0003549218695749464</v>
+        <v>0.0003263012924523931</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E245">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F245">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>525</v>
@@ -15926,7 +15926,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0003224250191415964</v>
+        <v>0.0003263012924523931</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15944,7 +15944,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>526</v>
@@ -15976,25 +15976,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0003224250191415964</v>
+        <v>0.0003230354433640913</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E247">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F247">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>527</v>
@@ -16026,25 +16026,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0003224250191415964</v>
+        <v>0.0002901421518606859</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E248">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F248">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>528</v>
@@ -16076,25 +16076,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0003191979664784113</v>
+        <v>0.0002901421518606859</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E249">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F249">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>529</v>
@@ -16126,7 +16126,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0002866954285236683</v>
+        <v>0.0002901421518606859</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16144,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>530</v>
@@ -16176,7 +16176,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0002866954285236683</v>
+        <v>0.0002901421518606859</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -16194,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>531</v>
@@ -16226,7 +16226,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0002866954285236683</v>
+        <v>0.0002901421518606859</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16244,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>532</v>
@@ -16276,25 +16276,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002866954285236683</v>
+        <v>0.0002562669303141029</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E253">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F253">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>533</v>
@@ -16326,25 +16326,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002866954285236683</v>
+        <v>0.0002501099848031634</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E254">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F254">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>534</v>
@@ -16376,25 +16376,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0002532226252948046</v>
+        <v>0.0002501099848031634</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F255">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>535</v>
@@ -16426,25 +16426,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0002471388207860987</v>
+        <v>0.0002199174925170183</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>536</v>
@@ -16476,25 +16476,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0002471388207860987</v>
+        <v>0.0002199174925170183</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E257">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F257">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>537</v>
@@ -16526,25 +16526,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0002173049980937993</v>
+        <v>0.0002054857015964555</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F258">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>538</v>
@@ -16576,25 +16576,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0002173049980937993</v>
+        <v>0.0002054857015964555</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E259">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F259">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>539</v>
@@ -16626,7 +16626,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0002030446486209608</v>
+        <v>0.0002054857015964555</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16644,7 +16644,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>540</v>
@@ -16676,25 +16676,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0002030446486209608</v>
+        <v>0.0001814991513581076</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E261">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F261">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>541</v>
@@ -16726,25 +16726,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0002030446486209608</v>
+        <v>0.0001814991513581076</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E262">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F262">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>542</v>
@@ -16776,25 +16776,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.000179343044923303</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E263">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F263">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>543</v>
@@ -16826,25 +16826,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.000179343044923303</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F264">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>544</v>
@@ -16876,7 +16876,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001536578377378552</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16894,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>545</v>
@@ -16926,7 +16926,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001536578377378552</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>546</v>
@@ -16976,7 +16976,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0001536578377378552</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16994,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>547</v>
@@ -17026,7 +17026,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0001536578377378552</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -17044,7 +17044,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>548</v>
@@ -17076,7 +17076,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0001536578377378552</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>549</v>
@@ -17126,7 +17126,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0001536578377378552</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -17144,7 +17144,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>550</v>
@@ -17176,7 +17176,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0001536578377378552</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>551</v>
@@ -17226,7 +17226,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0001536578377378552</v>
+        <v>0.0001555051502603254</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17244,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>552</v>
@@ -17276,25 +17276,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0001536578377378552</v>
+        <v>0.0001411186430904433</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E273">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F273">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>553</v>
@@ -17326,25 +17326,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0001536578377378552</v>
+        <v>0.0001043515037752429</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D274">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E274">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F274">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>554</v>
@@ -17376,13 +17376,13 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0001394422340705583</v>
+        <v>9.978594948109697E-05</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E275">
         <v>0.75</v>
@@ -17394,7 +17394,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>555</v>
@@ -17426,25 +17426,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.0001031118674073163</v>
+        <v>9.978594948109697E-05</v>
       </c>
       <c r="C276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E276">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F276">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>556</v>
@@ -17476,7 +17476,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>9.8600549295094E-05</v>
+        <v>9.978594948109697E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17494,7 +17494,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>557</v>
@@ -17526,7 +17526,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>9.8600549295094E-05</v>
+        <v>9.978594948109697E-05</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17544,7 +17544,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>558</v>
@@ -17576,7 +17576,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>9.8600549295094E-05</v>
+        <v>9.978594948109697E-05</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17594,7 +17594,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>559</v>
@@ -17626,7 +17626,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>9.8600549295094E-05</v>
+        <v>9.978594948109697E-05</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17644,7 +17644,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>560</v>
@@ -17676,7 +17676,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>9.8600549295094E-05</v>
+        <v>9.978594948109697E-05</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17694,7 +17694,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>561</v>
@@ -17726,7 +17726,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>9.8600549295094E-05</v>
+        <v>9.978594948109697E-05</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -17744,7 +17744,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>562</v>
@@ -17776,25 +17776,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>9.8600549295094E-05</v>
+        <v>5.743918545557951E-05</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E283">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F283">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>563</v>
@@ -17826,25 +17826,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>9.8600549295094E-05</v>
+        <v>5.743918545557861E-05</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E284">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F284">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>564</v>
@@ -17876,25 +17876,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>5.675684068182154E-05</v>
+        <v>5.743918545557861E-05</v>
       </c>
       <c r="C285">
         <v>2</v>
       </c>
       <c r="D285">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E285">
+        <v>0.67</v>
+      </c>
+      <c r="F285">
         <v>0.33</v>
       </c>
-      <c r="F285">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>565</v>
@@ -17926,13 +17926,13 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>5.675684068182066E-05</v>
+        <v>4.061563754147134E-05</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E286">
         <v>0.67</v>
@@ -17944,7 +17944,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>566</v>
@@ -17976,13 +17976,13 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>5.675684068182066E-05</v>
+        <v>4.061563754147134E-05</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E287">
         <v>0.67</v>
@@ -17994,7 +17994,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>567</v>
@@ -18026,7 +18026,7 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>4.013314692483989E-05</v>
+        <v>4.061563754147134E-05</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -18044,7 +18044,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>568</v>
@@ -18076,7 +18076,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>4.013314692483989E-05</v>
+        <v>4.061563754147134E-05</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -18094,7 +18094,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>569</v>
@@ -18126,7 +18126,7 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>4.013314692483989E-05</v>
+        <v>4.061563754147134E-05</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -18144,7 +18144,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>570</v>
@@ -18176,7 +18176,7 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>4.013314692483989E-05</v>
+        <v>4.061563754147134E-05</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -18194,7 +18194,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>571</v>
@@ -18226,7 +18226,7 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>4.013314692483989E-05</v>
+        <v>4.061563754147134E-05</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -18244,7 +18244,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>572</v>
@@ -18276,7 +18276,7 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>4.013314692483989E-05</v>
+        <v>4.061563754147134E-05</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -18294,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>573</v>
@@ -18326,25 +18326,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>4.013314692483989E-05</v>
+        <v>1.416637229110861E-05</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D294">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E294">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="F294">
-        <v>0.33</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>574</v>
@@ -18376,25 +18376,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>4.013314692483989E-05</v>
+        <v>0</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E295">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F295">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>575</v>
@@ -18426,25 +18426,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>1.399808386537139E-05</v>
+        <v>0</v>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E296">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="F296">
-        <v>0.5700000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>576</v>
@@ -18494,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>577</v>
@@ -18544,7 +18544,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>578</v>
@@ -18594,7 +18594,7 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>579</v>
@@ -18644,7 +18644,7 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>580</v>
@@ -18694,7 +18694,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>581</v>
@@ -18744,7 +18744,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>582</v>
@@ -18844,7 +18844,7 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>584</v>
@@ -18894,7 +18894,7 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>585</v>
@@ -18944,7 +18944,7 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>586</v>
@@ -18994,7 +18994,7 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>587</v>
@@ -19044,10 +19044,10 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K308">
         <v>0.0008509183415074758</v>
@@ -19094,10 +19094,10 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K309">
         <v>0.0008364864257352486</v>
@@ -19144,10 +19144,10 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K310">
         <v>0.0007821581584485566</v>
@@ -19194,10 +19194,10 @@
         <v>1</v>
       </c>
       <c r="H311">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K311">
         <v>0.0007681118608984604</v>
@@ -19247,7 +19247,7 @@
         <v>27</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K312">
         <v>0.0007557906071961183</v>
@@ -19294,10 +19294,10 @@
         <v>1</v>
       </c>
       <c r="H313">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K313">
         <v>0.0007557906071961183</v>
@@ -19322,32 +19322,8 @@
       </c>
     </row>
     <row r="314" spans="1:17">
-      <c r="A314" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B314">
-        <v>0</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>2</v>
-      </c>
-      <c r="E314">
-        <v>0.5</v>
-      </c>
-      <c r="F314">
-        <v>0.5</v>
-      </c>
-      <c r="G314" t="b">
-        <v>1</v>
-      </c>
-      <c r="H314">
-        <v>27</v>
-      </c>
       <c r="J314" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K314">
         <v>0.000733334485839816</v>
@@ -19372,32 +19348,8 @@
       </c>
     </row>
     <row r="315" spans="1:17">
-      <c r="A315" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B315">
-        <v>0</v>
-      </c>
-      <c r="C315">
-        <v>1</v>
-      </c>
-      <c r="D315">
-        <v>2</v>
-      </c>
-      <c r="E315">
-        <v>0.5</v>
-      </c>
-      <c r="F315">
-        <v>0.5</v>
-      </c>
-      <c r="G315" t="b">
-        <v>1</v>
-      </c>
-      <c r="H315">
-        <v>234</v>
-      </c>
       <c r="J315" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K315">
         <v>0.000733334485839816</v>
@@ -23349,7 +23301,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K467">
         <v>0.0006981477143612761</v>
@@ -23375,7 +23327,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K468">
         <v>0.0006981477143612761</v>
@@ -23401,7 +23353,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K469">
         <v>0.0006712876190086135</v>
@@ -23427,7 +23379,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K470">
         <v>0.0006625394619865423</v>
@@ -23453,7 +23405,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K471">
         <v>0.0006264978076688511</v>
@@ -23479,7 +23431,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K472">
         <v>0.0006214534573198459</v>
@@ -23505,7 +23457,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K473">
         <v>0.0006114712645790256</v>
@@ -23531,7 +23483,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K474">
         <v>0.0006029945450643902</v>
@@ -23557,7 +23509,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K475">
         <v>0.0005900112898663815</v>
@@ -23583,7 +23535,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K476">
         <v>0.0005900112898663815</v>
@@ -23609,7 +23561,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K477">
         <v>0.0005900112898663815</v>
@@ -23635,7 +23587,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K478">
         <v>0.0005665505217592163</v>
@@ -23661,7 +23613,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K479">
         <v>0.0005530693377993563</v>
@@ -23687,7 +23639,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K480">
         <v>0.0005530693377993563</v>
@@ -23713,7 +23665,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K481">
         <v>0.0005156629007259366</v>
@@ -23739,7 +23691,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K482">
         <v>0.0005156629007259366</v>
@@ -23765,7 +23717,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K483">
         <v>0.0005108213570685513</v>
@@ -33515,7 +33467,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K858">
         <v>0.0004777853713946981</v>
@@ -33541,7 +33493,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K859">
         <v>0.0004777853713946981</v>
@@ -33567,7 +33519,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K860">
         <v>0.0004777853713946981</v>
@@ -33593,7 +33545,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K861">
         <v>0.0004777853713946981</v>
@@ -33619,7 +33571,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K862">
         <v>0.0004777853713946981</v>
@@ -33645,7 +33597,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K863">
         <v>0.0004548349854346974</v>
@@ -33671,7 +33623,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K864">
         <v>0.0004548349854346974</v>
@@ -33697,7 +33649,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K865">
         <v>0.0004548349854346974</v>
@@ -33723,7 +33675,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K866">
         <v>0.0004394339538626872</v>
@@ -33749,7 +33701,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K867">
         <v>0.0004265429529923299</v>
@@ -33775,7 +33727,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K868">
         <v>0.0003981263980234095</v>
@@ -33801,7 +33753,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K869">
         <v>0.0003613307198970029</v>
@@ -33827,7 +33779,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K870">
         <v>0.0003613307198970029</v>
@@ -33853,7 +33805,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K871">
         <v>0.0003613307198970029</v>
@@ -33879,7 +33831,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K872">
         <v>0.0003473620562660879</v>
@@ -33905,7 +33857,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K873">
         <v>0.0003409892496659496</v>
@@ -33931,7 +33883,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K874">
         <v>0.0003272249600638689</v>
@@ -33957,7 +33909,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K875">
         <v>0.0003216169025217588</v>
@@ -33983,7 +33935,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K876">
         <v>0.0002815178758117273</v>
@@ -34009,7 +33961,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K877">
         <v>0.0002815178758117273</v>
@@ -34035,7 +33987,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K878">
         <v>0.0002815178758117273</v>
@@ -34061,7 +34013,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K879">
         <v>0.0002815178758117273</v>
@@ -34087,7 +34039,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K880">
         <v>0.0002815178758117273</v>
@@ -34113,7 +34065,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K881">
         <v>0.0002815178758117273</v>
@@ -34139,7 +34091,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K882">
         <v>0.0002799035586974747</v>
@@ -34165,7 +34117,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K883">
         <v>0.0002411158107505057</v>
@@ -34191,7 +34143,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K884">
         <v>0.0002411158107505057</v>
@@ -34217,7 +34169,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K885">
         <v>0.0002411158107505057</v>
@@ -34243,7 +34195,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K886">
         <v>0.0002005495766914883</v>
@@ -34269,7 +34221,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K887">
         <v>0.0002005495766914883</v>
@@ -34295,7 +34247,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K888">
         <v>0.0002005495766914883</v>
@@ -34321,7 +34273,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K889">
         <v>0.0002005495766914883</v>
@@ -34347,7 +34299,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K890">
         <v>0.0002005495766914883</v>
@@ -34373,7 +34325,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K891">
         <v>0.0001979217044332312</v>
@@ -34399,7 +34351,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K892">
         <v>0.0001600547461553384</v>
@@ -34425,7 +34377,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K893">
         <v>0.0001600547461553384</v>
@@ -34451,7 +34403,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K894">
         <v>0.0001420236682335009</v>
@@ -34477,7 +34429,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K895">
         <v>0.0001205579053752527</v>
@@ -34503,7 +34455,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K896">
         <v>0.0001200406978894388</v>
@@ -34529,7 +34481,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K897">
         <v>0.0001200406978894388</v>
@@ -34555,7 +34507,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K898">
         <v>0.0001200406978894388</v>
@@ -34581,7 +34533,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K899">
         <v>0.0001149083722565028</v>
@@ -34607,7 +34559,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K900">
         <v>0.0001149083722565028</v>
@@ -34633,7 +34585,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K901">
         <v>9.383929193724244E-05</v>
@@ -34659,7 +34611,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K902">
         <v>8.870957995314164E-05</v>
@@ -34685,7 +34637,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K903">
         <v>8.870957995314164E-05</v>
@@ -34711,7 +34663,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K904">
         <v>8.125248923768127E-05</v>
@@ -34737,7 +34689,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K905">
         <v>8.125248923768127E-05</v>
@@ -34763,7 +34715,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K906">
         <v>8.125248923768127E-05</v>
@@ -34789,7 +34741,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K907">
         <v>8.125248923768127E-05</v>
@@ -34815,7 +34767,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K908">
         <v>8.125248923768127E-05</v>
@@ -34841,7 +34793,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K909">
         <v>8.125248923768127E-05</v>
@@ -34867,7 +34819,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K910">
         <v>8.125248923768127E-05</v>
@@ -34893,7 +34845,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K911">
         <v>8.125248923768127E-05</v>
@@ -34919,7 +34871,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K912">
         <v>8.125248923768127E-05</v>
@@ -34945,7 +34897,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K913">
         <v>8.125248923768127E-05</v>
@@ -34971,7 +34923,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K914">
         <v>6.385676616083789E-05</v>
@@ -34997,7 +34949,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K915">
         <v>4.515355237697213E-05</v>
@@ -35023,7 +34975,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K916">
         <v>4.515355237697213E-05</v>
@@ -35049,7 +35001,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K917">
         <v>4.515355237697213E-05</v>
@@ -35075,7 +35027,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K918">
         <v>4.515355237697213E-05</v>
@@ -35101,7 +35053,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K919">
         <v>4.515355237697213E-05</v>
@@ -35127,7 +35079,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K920">
         <v>4.515355237697213E-05</v>
@@ -35153,7 +35105,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K921">
         <v>4.515355237697213E-05</v>
@@ -35179,7 +35131,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K922">
         <v>4.515355237697213E-05</v>
@@ -35205,7 +35157,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K923">
         <v>4.164367097687479E-05</v>
@@ -35231,7 +35183,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K924">
         <v>2.122194439666716E-05</v>
@@ -35257,7 +35209,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K925">
         <v>2.122194439666716E-05</v>
@@ -35283,7 +35235,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K926">
         <v>1.500618079284728E-05</v>
@@ -35309,7 +35261,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K927">
         <v>1.500618079284728E-05</v>
@@ -35335,7 +35287,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K928">
         <v>1.500618079284728E-05</v>
@@ -35361,7 +35313,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K929">
         <v>1.500618079284728E-05</v>
@@ -35387,7 +35339,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K930">
         <v>1.500618079284728E-05</v>
@@ -35413,7 +35365,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K931">
         <v>1.500618079284728E-05</v>
@@ -35439,7 +35391,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K932">
         <v>1.500618079284728E-05</v>
@@ -35465,7 +35417,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K933">
         <v>1.500618079284728E-05</v>
@@ -35491,7 +35443,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K934">
         <v>1.061097219833347E-05</v>
@@ -35517,7 +35469,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K935">
         <v>3.205170851029667E-06</v>
@@ -35543,7 +35495,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K936">
         <v>0</v>
@@ -35569,7 +35521,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K937">
         <v>0</v>
@@ -35595,7 +35547,7 @@
     </row>
     <row r="938" spans="10:17">
       <c r="J938" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K938">
         <v>0</v>
@@ -35621,7 +35573,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K939">
         <v>0</v>
@@ -35647,7 +35599,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K940">
         <v>0</v>
@@ -35673,7 +35625,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K941">
         <v>0</v>
@@ -35699,7 +35651,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K942">
         <v>0</v>
@@ -35725,7 +35677,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K943">
         <v>0</v>
@@ -35751,7 +35703,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K944">
         <v>0</v>
@@ -35777,7 +35729,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K945">
         <v>0</v>
@@ -35803,7 +35755,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K946">
         <v>0</v>
@@ -35829,7 +35781,7 @@
     </row>
     <row r="947" spans="10:17">
       <c r="J947" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K947">
         <v>0</v>
@@ -35855,7 +35807,7 @@
     </row>
     <row r="948" spans="10:17">
       <c r="J948" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K948">
         <v>0</v>
@@ -35881,7 +35833,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K949">
         <v>0</v>
@@ -35907,7 +35859,7 @@
     </row>
     <row r="950" spans="10:17">
       <c r="J950" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K950">
         <v>0</v>
@@ -35933,7 +35885,7 @@
     </row>
     <row r="951" spans="10:17">
       <c r="J951" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K951">
         <v>0</v>
@@ -35959,7 +35911,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K952">
         <v>0</v>
@@ -35985,7 +35937,7 @@
     </row>
     <row r="953" spans="10:17">
       <c r="J953" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K953">
         <v>0</v>
@@ -36011,7 +35963,7 @@
     </row>
     <row r="954" spans="10:17">
       <c r="J954" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K954">
         <v>0</v>
